--- a/biology/Botanique/Helicodiceros_muscivorus/Helicodiceros_muscivorus.xlsx
+++ b/biology/Botanique/Helicodiceros_muscivorus/Helicodiceros_muscivorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helicodiceros muscivorus est une espèce de plante de la famille des Araceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appelée petit dragon mange-mouches, arum mange-mouches ou arum du cheval mort, cette espèce proche des Arum, est originaire des îles de la Méditerranée occidentale. Son inflorescence spectaculaire de couleur brune s'apparente à la zone anale d'un cadavre de mammifère, présentant en particulier un spadice velu qui ressemble à la queue d’une bête morte. Cette fleur cadavre répand une odeur prononcée de charogne (cheval mort), qui attire les mouches bleues et autres insectes pollinisateurs, qui vont même y pondre leurs œufs. La rosace dense de poils raides dans le spadice piège ces insectes, ce qui favorise la pollinisation. Lorsque l’inflorescence se flétrit on y trouve de nombreuses mouches mortes par asphyxie et de jeunes asticots affamés, d'où son nom vernaculaire d'arum mange-mouches, les botanistes du XIXe siècle pensant à tort qu'il s'agissait d'une plante carnivore. Pendant la floraison, la fleur produit une chaleur qui aide les odeurs à se volatiliser. Cette thermogenèse, représentant un apport de dix à vingt degrés Celsius au-dessus de la température ambiante, favorise également l'attraction des insectes en simulant la chaleur dégagée par un animal en putréfaction[1],[3].
-L'odeur caractéristique de la fleur provient majoritairement de polysulfures de diméthyle (en particulier le sulfure de diméthyle), comme pour les Amorphophallus[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appelée petit dragon mange-mouches, arum mange-mouches ou arum du cheval mort, cette espèce proche des Arum, est originaire des îles de la Méditerranée occidentale. Son inflorescence spectaculaire de couleur brune s'apparente à la zone anale d'un cadavre de mammifère, présentant en particulier un spadice velu qui ressemble à la queue d’une bête morte. Cette fleur cadavre répand une odeur prononcée de charogne (cheval mort), qui attire les mouches bleues et autres insectes pollinisateurs, qui vont même y pondre leurs œufs. La rosace dense de poils raides dans le spadice piège ces insectes, ce qui favorise la pollinisation. Lorsque l’inflorescence se flétrit on y trouve de nombreuses mouches mortes par asphyxie et de jeunes asticots affamés, d'où son nom vernaculaire d'arum mange-mouches, les botanistes du XIXe siècle pensant à tort qu'il s'agissait d'une plante carnivore. Pendant la floraison, la fleur produit une chaleur qui aide les odeurs à se volatiliser. Cette thermogenèse, représentant un apport de dix à vingt degrés Celsius au-dessus de la température ambiante, favorise également l'attraction des insectes en simulant la chaleur dégagée par un animal en putréfaction,.
+L'odeur caractéristique de la fleur provient majoritairement de polysulfures de diméthyle (en particulier le sulfure de diméthyle), comme pour les Amorphophallus.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Arum muscivorum L.f.
 Dracunculus muscivorus (L.f.) Parl.</t>
